--- a/VehicleParameters.xlsx
+++ b/VehicleParameters.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fsae\YawMomentPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssamcpoyle/YawMoment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0485E2D-930E-4DAD-B515-8A6021B4FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D19251-2A43-1542-83B7-DF7E6B1772FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13580" yWindow="1880" windowWidth="14620" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>ParameterName</t>
   </si>
@@ -133,6 +144,21 @@
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>vehicleName</t>
+  </si>
+  <si>
+    <t>PR38</t>
   </si>
 </sst>
 </file>
@@ -450,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -487,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -501,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -515,12 +541,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.76500000000000001</v>
+        <f>$B3 - $B6</f>
+        <v>0.80325000000000002</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -529,12 +556,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.76500000000000001</v>
+        <f>$B7*$B3</f>
+        <v>0.72675000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -543,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -554,7 +582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -565,7 +593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -576,18 +604,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -598,7 +626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -609,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -623,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -634,7 +662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -642,7 +670,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -653,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -667,7 +695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -679,6 +707,28 @@
       </c>
       <c r="D18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/VehicleParameters.xlsx
+++ b/VehicleParameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssamcpoyle/YawMoment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D19251-2A43-1542-83B7-DF7E6B1772FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D17AE-E4D0-B94F-BDD6-B421D1EB9A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13580" yWindow="1880" windowWidth="14620" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>ParameterName</t>
   </si>
@@ -144,15 +144,6 @@
   </si>
   <si>
     <t>length</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>velocity</t>
-  </si>
-  <si>
-    <t>m/s</t>
   </si>
   <si>
     <t>vehicleName</t>
@@ -476,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,22 +704,8 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
